--- a/Прайс-листы,каталоги/Прайс лист Simfer  проверял сам.xlsx
+++ b/Прайс-листы,каталоги/Прайс лист Simfer  проверял сам.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Kitchengoods-CardProduct\Прайс-листы,каталоги\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="666">
   <si>
     <t>F55GW42017</t>
   </si>
@@ -2013,12 +2018,15 @@
   </si>
   <si>
     <t>проверь, возможно нет на сайте</t>
+  </si>
+  <si>
+    <t>В битре есть, но он не активен</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="33">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -3465,6 +3473,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3723,24 +3739,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z72" sqref="Z72"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="24" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="24" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="24" customWidth="1"/>
     <col min="5" max="14" width="8.7109375" style="24" customWidth="1"/>
@@ -3908,8 +3924,8 @@
       <c r="AB3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="AC3" s="31" t="s">
-        <v>111</v>
+      <c r="AC3" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1">
@@ -3972,9 +3988,6 @@
       </c>
       <c r="AB4" s="27">
         <v>6006</v>
-      </c>
-      <c r="AC4" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1">
@@ -4032,9 +4045,6 @@
       <c r="AB5" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="AC5" s="31" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1">
       <c r="A6" s="19">
@@ -4093,8 +4103,8 @@
       <c r="AB6" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="AC6" s="31" t="s">
-        <v>129</v>
+      <c r="AC6" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>664</v>
@@ -4161,8 +4171,8 @@
       <c r="AB7" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="AC7" s="31" t="s">
-        <v>351</v>
+      <c r="AC7" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1">
@@ -4214,8 +4224,8 @@
       <c r="AB8" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="AC8" s="31" t="s">
-        <v>363</v>
+      <c r="AC8" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="14.45" customHeight="1">
@@ -4277,8 +4287,8 @@
       <c r="AB9" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="AC9" s="31" t="s">
-        <v>134</v>
+      <c r="AC9" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15" customHeight="1">
@@ -4321,7 +4331,7 @@
         <v>615</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>135</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1">
@@ -4373,8 +4383,8 @@
       <c r="AB11" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="AC11" s="31" t="s">
-        <v>136</v>
+      <c r="AC11" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1">
@@ -4426,9 +4436,6 @@
       <c r="AB12" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="AC12" s="31" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="13" spans="1:30" ht="30" customHeight="1">
       <c r="A13" s="19">
@@ -4495,9 +4502,6 @@
       <c r="AB13" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="AC13" s="32" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="14" spans="1:30" ht="30" customHeight="1">
       <c r="A14" s="19">
@@ -4562,9 +4566,6 @@
       <c r="AB14" s="27" t="s">
         <v>619</v>
       </c>
-      <c r="AC14" s="33" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="15" spans="1:30" ht="30" customHeight="1">
       <c r="A15" s="19">
@@ -4629,9 +4630,6 @@
       <c r="AB15" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AC15" s="31" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="16" spans="1:30" ht="30" customHeight="1">
       <c r="A16" s="19">
@@ -4691,9 +4689,6 @@
       <c r="U16" s="3"/>
       <c r="AB16" s="27" t="s">
         <v>620</v>
-      </c>
-      <c r="AC16" s="31" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="30" customHeight="1">
@@ -4754,9 +4749,6 @@
       <c r="U17" s="4"/>
       <c r="AB17" s="27" t="s">
         <v>187</v>
-      </c>
-      <c r="AC17" s="31" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="30" customHeight="1">
@@ -4815,9 +4807,6 @@
       <c r="U18" s="4"/>
       <c r="AB18" s="27" t="s">
         <v>172</v>
-      </c>
-      <c r="AC18" s="31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="30" customHeight="1">
@@ -8772,6 +8761,9 @@
       <c r="U88" s="2">
         <v>9</v>
       </c>
+      <c r="AB88" s="31" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="89" spans="1:28" ht="15" customHeight="1">
       <c r="A89" s="19">
@@ -8824,6 +8816,9 @@
       <c r="T89" s="3"/>
       <c r="U89" s="2">
         <v>4</v>
+      </c>
+      <c r="AB89" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="15" customHeight="1">
@@ -8876,6 +8871,9 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
+      <c r="AB90" s="31" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="91" spans="1:28" ht="30" customHeight="1">
       <c r="A91" s="19">
@@ -8921,6 +8919,9 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
+      <c r="AB91" s="31" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="92" spans="1:28" ht="14.45" customHeight="1">
       <c r="A92" s="19">
@@ -8968,6 +8969,9 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
+      <c r="AB92" s="31" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="93" spans="1:28" ht="14.45" customHeight="1">
       <c r="A93" s="19">
@@ -9015,6 +9019,9 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
+      <c r="AB93" s="31" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="94" spans="1:28" ht="15" customHeight="1">
       <c r="A94" s="19">
@@ -9071,6 +9078,9 @@
       <c r="T94" s="3"/>
       <c r="U94" s="2">
         <v>38</v>
+      </c>
+      <c r="AB94" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="15" customHeight="1">
@@ -9123,6 +9133,9 @@
         <v>7</v>
       </c>
       <c r="U95" s="3"/>
+      <c r="AB95" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="96" spans="1:28" ht="14.45" customHeight="1">
       <c r="A96" s="19">
@@ -9184,8 +9197,11 @@
       <c r="U96" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" ht="14.45" customHeight="1">
+      <c r="AB96" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="14.45" customHeight="1">
       <c r="A97" s="19">
         <v>8699272060373</v>
       </c>
@@ -9243,8 +9259,11 @@
       <c r="U97" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1">
+      <c r="AB97" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="15" customHeight="1">
       <c r="A98" s="19">
         <v>8699272060564</v>
       </c>
@@ -9288,8 +9307,11 @@
       <c r="U98" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1">
+      <c r="AB98" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="15" customHeight="1">
       <c r="A99" s="19">
         <v>8699272060571</v>
       </c>
@@ -9347,8 +9369,11 @@
       <c r="U99" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1">
+      <c r="AB99" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="15" customHeight="1">
       <c r="A100" s="19">
         <v>8699272060595</v>
       </c>
@@ -9402,8 +9427,11 @@
       <c r="U100" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" ht="15" customHeight="1">
+      <c r="AB100" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="15" customHeight="1">
       <c r="A101" s="19">
         <v>8699272060618</v>
       </c>
@@ -9461,8 +9489,11 @@
       <c r="U101" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" ht="14.45" customHeight="1">
+      <c r="AB101" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="14.45" customHeight="1">
       <c r="A102" s="19">
         <v>8699272060625</v>
       </c>
@@ -9512,8 +9543,11 @@
       <c r="U102" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" ht="78.75" customHeight="1">
+      <c r="AB102" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="78.75" customHeight="1">
       <c r="A103" s="19">
         <v>8699272060953</v>
       </c>
@@ -9571,8 +9605,11 @@
       <c r="U103" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" ht="14.45" customHeight="1">
+      <c r="AB103" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="14.45" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>384</v>
       </c>
@@ -9617,7 +9654,7 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="30" customHeight="1">
+    <row r="105" spans="1:28" ht="30" customHeight="1">
       <c r="A105" s="19">
         <v>8699272061592</v>
       </c>
@@ -9662,7 +9699,7 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="78.75" customHeight="1">
+    <row r="106" spans="1:28" ht="78.75" customHeight="1">
       <c r="A106" s="19">
         <v>8699272061622</v>
       </c>
@@ -9709,7 +9746,7 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="78.75" customHeight="1">
+    <row r="107" spans="1:28" ht="78.75" customHeight="1">
       <c r="A107" s="19">
         <v>8699272061646</v>
       </c>
@@ -9760,7 +9797,7 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="30" customHeight="1">
+    <row r="108" spans="1:28" ht="30" customHeight="1">
       <c r="A108" s="19">
         <v>8699272061769</v>
       </c>
@@ -9819,7 +9856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="30" customHeight="1">
+    <row r="109" spans="1:28" ht="30" customHeight="1">
       <c r="A109" s="19">
         <v>8699272061776</v>
       </c>
@@ -9866,7 +9903,7 @@
       </c>
       <c r="U109" s="3"/>
     </row>
-    <row r="110" spans="1:21" ht="78.75" customHeight="1">
+    <row r="110" spans="1:28" ht="78.75" customHeight="1">
       <c r="A110" s="19">
         <v>8699272854507</v>
       </c>
@@ -9921,7 +9958,7 @@
       </c>
       <c r="U110" s="3"/>
     </row>
-    <row r="111" spans="1:21" ht="90" customHeight="1">
+    <row r="111" spans="1:28" ht="90" customHeight="1">
       <c r="A111" s="19">
         <v>8699272862342</v>
       </c>
@@ -9966,7 +10003,7 @@
       </c>
       <c r="U111" s="3"/>
     </row>
-    <row r="112" spans="1:21" ht="56.25" customHeight="1">
+    <row r="112" spans="1:28" ht="56.25" customHeight="1">
       <c r="A112" s="19">
         <v>8699272053900</v>
       </c>
@@ -17744,16 +17781,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U262">
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="A2:U262"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
